--- a/UgandaScrape/MacroData_WebsiteSources.xlsx
+++ b/UgandaScrape/MacroData_WebsiteSources.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\unicorn6\TeamData\IDMT\SOP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kitty\NUS\Internship-PartTimeJob\RMI-CRI\Uganda-Scraping\UgandaScrape\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCFF258-7BE3-4B04-BDA5-8F1B0B969196}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="480" yWindow="270" windowWidth="10500" windowHeight="9090"/>
+    <workbookView xWindow="-104" yWindow="-104" windowWidth="21312" windowHeight="12649" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stock Index" sheetId="1" r:id="rId1"/>
@@ -25,13 +26,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Liu Yaxin</author>
     <author>Ouyang Chenzi</author>
   </authors>
   <commentList>
-    <comment ref="C38" authorId="0" shapeId="0">
+    <comment ref="C38" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -55,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C39" authorId="1" shapeId="0">
+    <comment ref="C39" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1237,14 +1238,13 @@
     <t>QE index</t>
   </si>
   <si>
-    <t>https://www.use.or.ug/listed/alsi
-https://www.investing.com/indices/uganda-all-share</t>
+    <t>https://www.investing.com/indices/uganda-all-share</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1582,7 +1582,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -1679,6 +1679,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1714,6 +1731,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1889,27 +1923,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H81" sqref="H81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.140625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="15.09765625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.59765625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.09765625" style="10" customWidth="1"/>
     <col min="5" max="5" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="65.7109375" style="10" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="10"/>
+    <col min="6" max="6" width="10.69921875" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.296875" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="65.69921875" style="10" customWidth="1"/>
+    <col min="9" max="16384" width="8.8984375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1935,7 +1969,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12">
         <v>1386</v>
       </c>
@@ -1961,7 +1995,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>1</v>
       </c>
@@ -1987,7 +2021,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>1254</v>
       </c>
@@ -2013,7 +2047,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>1446</v>
       </c>
@@ -2039,7 +2073,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>1494</v>
       </c>
@@ -2065,7 +2099,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>1253</v>
       </c>
@@ -2089,7 +2123,7 @@
       </c>
       <c r="H7" s="12"/>
     </row>
-    <row r="8" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>1499</v>
       </c>
@@ -2115,7 +2149,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="19">
         <v>1474</v>
       </c>
@@ -2141,7 +2175,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>5</v>
       </c>
@@ -2167,7 +2201,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>1429</v>
       </c>
@@ -2193,7 +2227,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>6</v>
       </c>
@@ -2219,7 +2253,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>1387</v>
       </c>
@@ -2245,7 +2279,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>9</v>
       </c>
@@ -2271,7 +2305,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>1407</v>
       </c>
@@ -2297,7 +2331,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <v>1432</v>
       </c>
@@ -2323,7 +2357,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <v>1436</v>
       </c>
@@ -2349,7 +2383,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
         <v>1424</v>
       </c>
@@ -2375,7 +2409,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
         <v>1151</v>
       </c>
@@ -2401,7 +2435,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
         <v>1451</v>
       </c>
@@ -2427,7 +2461,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
         <v>1431</v>
       </c>
@@ -2453,7 +2487,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
         <v>1155</v>
       </c>
@@ -2479,7 +2513,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
         <v>20</v>
       </c>
@@ -2505,7 +2539,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
         <v>1261</v>
       </c>
@@ -2531,7 +2565,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12">
         <v>1256</v>
       </c>
@@ -2557,7 +2591,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12">
         <v>34</v>
       </c>
@@ -2583,7 +2617,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12">
         <v>1428</v>
       </c>
@@ -2609,7 +2643,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
         <v>1150</v>
       </c>
@@ -2635,7 +2669,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
         <v>43</v>
       </c>
@@ -2661,7 +2695,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="12">
         <v>37</v>
       </c>
@@ -2687,7 +2721,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="12">
         <v>1149</v>
       </c>
@@ -2713,7 +2747,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="12">
         <v>1414</v>
       </c>
@@ -2739,7 +2773,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="12">
         <v>1360</v>
       </c>
@@ -2765,7 +2799,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="12">
         <v>1393</v>
       </c>
@@ -2791,7 +2825,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="12">
         <v>49</v>
       </c>
@@ -2817,7 +2851,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="12">
         <v>1482</v>
       </c>
@@ -2843,7 +2877,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="12">
         <v>1422</v>
       </c>
@@ -2869,7 +2903,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="12">
         <v>1094</v>
       </c>
@@ -2895,7 +2929,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="12">
         <v>1569</v>
       </c>
@@ -2924,7 +2958,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="12">
         <v>1445</v>
       </c>
@@ -2950,7 +2984,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="12">
         <v>1427</v>
       </c>
@@ -2976,7 +3010,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="42" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="12">
         <v>1438</v>
       </c>
@@ -3002,7 +3036,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="43" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="12">
         <v>1075</v>
       </c>
@@ -3028,7 +3062,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="12">
         <v>1462</v>
       </c>
@@ -3054,7 +3088,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="45" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="19">
         <v>1519</v>
       </c>
@@ -3080,7 +3114,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="46" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="12">
         <v>62</v>
       </c>
@@ -3106,7 +3140,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="47" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="12">
         <v>1437</v>
       </c>
@@ -3132,7 +3166,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="12">
         <v>65</v>
       </c>
@@ -3158,7 +3192,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="49" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="12">
         <v>1508</v>
       </c>
@@ -3184,7 +3218,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="12">
         <v>1511</v>
       </c>
@@ -3210,7 +3244,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="12">
         <v>66</v>
       </c>
@@ -3236,7 +3270,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="52" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="12">
         <v>67</v>
       </c>
@@ -3262,7 +3296,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="53" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="12">
         <v>1453</v>
       </c>
@@ -3288,7 +3322,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="54" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="12">
         <v>1361</v>
       </c>
@@ -3314,7 +3348,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="55" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="12">
         <v>1465</v>
       </c>
@@ -3340,7 +3374,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="56" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="12">
         <v>72</v>
       </c>
@@ -3366,7 +3400,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="57" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="12">
         <v>1509</v>
       </c>
@@ -3392,7 +3426,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="58" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="12">
         <v>71</v>
       </c>
@@ -3418,7 +3452,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="59" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="12">
         <v>1412</v>
       </c>
@@ -3444,7 +3478,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="60" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="12">
         <v>1257</v>
       </c>
@@ -3470,7 +3504,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="61" spans="1:9" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" s="11" customFormat="1" ht="15.55" x14ac:dyDescent="0.3">
       <c r="A61" s="12">
         <v>1520</v>
       </c>
@@ -3499,7 +3533,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="62" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="12">
         <v>1423</v>
       </c>
@@ -3525,7 +3559,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="63" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="12">
         <v>1408</v>
       </c>
@@ -3551,7 +3585,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="64" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="12">
         <v>1448</v>
       </c>
@@ -3577,7 +3611,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="65" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="12">
         <v>1470</v>
       </c>
@@ -3603,7 +3637,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="66" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="12">
         <v>75</v>
       </c>
@@ -3629,7 +3663,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="67" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="12">
         <v>1433</v>
       </c>
@@ -3655,7 +3689,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="68" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="12">
         <v>1018</v>
       </c>
@@ -3681,7 +3715,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="69" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="12">
         <v>1417</v>
       </c>
@@ -3707,7 +3741,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="70" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="12">
         <v>78</v>
       </c>
@@ -3733,7 +3767,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="71" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="12">
         <v>85</v>
       </c>
@@ -3759,7 +3793,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="72" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="12">
         <v>84</v>
       </c>
@@ -3785,7 +3819,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="73" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="12">
         <v>1154</v>
       </c>
@@ -3811,7 +3845,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="74" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="12">
         <v>1265</v>
       </c>
@@ -3837,7 +3871,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="75" spans="1:8" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" s="11" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A75" s="12">
         <v>90</v>
       </c>
@@ -3863,7 +3897,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="76" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="12">
         <v>1098</v>
       </c>
@@ -3889,7 +3923,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="77" spans="1:8" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" s="11" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A77" s="12">
         <v>91</v>
       </c>
@@ -3915,7 +3949,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="78" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="12">
         <v>1458</v>
       </c>
@@ -3941,7 +3975,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="79" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="12">
         <v>1425</v>
       </c>
@@ -3967,7 +4001,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="19">
         <v>1522</v>
       </c>
@@ -3993,7 +4027,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="81" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="12">
         <v>1418</v>
       </c>
@@ -4019,7 +4053,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="82" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="12">
         <v>1450</v>
       </c>
@@ -4045,7 +4079,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="83" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="12">
         <v>21</v>
       </c>
@@ -4071,7 +4105,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="84" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="12">
         <v>95</v>
       </c>
@@ -4097,7 +4131,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="85" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="12">
         <v>1388</v>
       </c>
@@ -4123,7 +4157,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="12">
         <v>97</v>
       </c>
@@ -4149,7 +4183,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="33">
         <v>1466</v>
       </c>
@@ -4176,49 +4210,49 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:H84">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H84">
     <sortCondition ref="B1"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="H5" r:id="rId1"/>
-    <hyperlink ref="H37" r:id="rId2"/>
-    <hyperlink ref="H6" r:id="rId3"/>
-    <hyperlink ref="H47" r:id="rId4"/>
-    <hyperlink ref="H50" r:id="rId5"/>
-    <hyperlink ref="H81" r:id="rId6"/>
-    <hyperlink ref="H72" r:id="rId7"/>
-    <hyperlink ref="H43" r:id="rId8"/>
-    <hyperlink ref="H49" r:id="rId9"/>
-    <hyperlink ref="H33" r:id="rId10"/>
-    <hyperlink ref="H68" r:id="rId11"/>
-    <hyperlink ref="H83" r:id="rId12"/>
-    <hyperlink ref="H8" r:id="rId13"/>
-    <hyperlink ref="H86" r:id="rId14"/>
-    <hyperlink ref="H40" r:id="rId15"/>
-    <hyperlink ref="H46" r:id="rId16"/>
-    <hyperlink ref="H66" r:id="rId17"/>
-    <hyperlink ref="H77" r:id="rId18" display="https://www.set.or.th/set/mainpage.do?language=en&amp;country=US"/>
-    <hyperlink ref="H19" r:id="rId19"/>
-    <hyperlink ref="H14" r:id="rId20"/>
-    <hyperlink ref="H26" r:id="rId21"/>
-    <hyperlink ref="H32" r:id="rId22"/>
-    <hyperlink ref="H69" r:id="rId23"/>
-    <hyperlink ref="H45" r:id="rId24"/>
-    <hyperlink ref="H57" r:id="rId25"/>
-    <hyperlink ref="H3" r:id="rId26"/>
-    <hyperlink ref="H2" r:id="rId27"/>
-    <hyperlink ref="H4" r:id="rId28"/>
-    <hyperlink ref="H10" r:id="rId29"/>
-    <hyperlink ref="H80" r:id="rId30" display="https://www.use.or.ug/listed/alsi"/>
-    <hyperlink ref="H9" r:id="rId31"/>
-    <hyperlink ref="H44" r:id="rId32"/>
-    <hyperlink ref="H39" r:id="rId33"/>
-    <hyperlink ref="H76" r:id="rId34"/>
-    <hyperlink ref="H38" r:id="rId35"/>
-    <hyperlink ref="H55" r:id="rId36"/>
-    <hyperlink ref="H61" r:id="rId37"/>
-    <hyperlink ref="H82" r:id="rId38"/>
-    <hyperlink ref="H18" r:id="rId39"/>
+    <hyperlink ref="H5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H37" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="H6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="H47" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="H50" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="H81" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="H72" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="H43" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="H49" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="H33" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="H68" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="H83" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="H8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="H86" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="H40" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="H46" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="H66" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="H77" r:id="rId18" display="https://www.set.or.th/set/mainpage.do?language=en&amp;country=US" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="H19" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="H14" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="H26" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="H32" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="H69" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="H45" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="H57" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="H3" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="H2" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="H4" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="H10" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="H80" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="H9" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="H44" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="H39" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="H76" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="H38" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="H55" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="H61" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="H82" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="H18" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId40"/>
@@ -4227,26 +4261,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.09765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="74.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="74.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4272,7 +4306,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1492</v>
       </c>
@@ -4296,7 +4330,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1493</v>
       </c>
@@ -4310,7 +4344,7 @@
       <c r="G3" s="42"/>
       <c r="H3" s="41"/>
     </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>750</v>
       </c>
@@ -4324,7 +4358,7 @@
       <c r="G4" s="42"/>
       <c r="H4" s="41"/>
     </row>
-    <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>751</v>
       </c>
@@ -4338,7 +4372,7 @@
       <c r="G5" s="42"/>
       <c r="H5" s="41"/>
     </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>752</v>
       </c>
@@ -4352,7 +4386,7 @@
       <c r="G6" s="42"/>
       <c r="H6" s="41"/>
     </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>753</v>
       </c>
@@ -4366,7 +4400,7 @@
       <c r="G7" s="42"/>
       <c r="H7" s="41"/>
     </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>754</v>
       </c>
@@ -4380,7 +4414,7 @@
       <c r="G8" s="42"/>
       <c r="H8" s="41"/>
     </row>
-    <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>755</v>
       </c>
@@ -4394,7 +4428,7 @@
       <c r="G9" s="42"/>
       <c r="H9" s="41"/>
     </row>
-    <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>756</v>
       </c>
@@ -4408,7 +4442,7 @@
       <c r="G10" s="42"/>
       <c r="H10" s="41"/>
     </row>
-    <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>757</v>
       </c>
@@ -4422,7 +4456,7 @@
       <c r="G11" s="42"/>
       <c r="H11" s="41"/>
     </row>
-    <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>758</v>
       </c>
@@ -4436,7 +4470,7 @@
       <c r="G12" s="42"/>
       <c r="H12" s="41"/>
     </row>
-    <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>759</v>
       </c>
@@ -4450,7 +4484,7 @@
       <c r="G13" s="42"/>
       <c r="H13" s="41"/>
     </row>
-    <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>760</v>
       </c>
@@ -4464,7 +4498,7 @@
       <c r="G14" s="42"/>
       <c r="H14" s="41"/>
     </row>
-    <row r="15" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>761</v>
       </c>
@@ -4478,7 +4512,7 @@
       <c r="G15" s="42"/>
       <c r="H15" s="41"/>
     </row>
-    <row r="16" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>762</v>
       </c>
@@ -4492,7 +4526,7 @@
       <c r="G16" s="42"/>
       <c r="H16" s="41"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>349</v>
       </c>
@@ -4510,8 +4544,8 @@
     <mergeCell ref="D2:D16"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1"/>
-    <hyperlink ref="B17" r:id="rId2"/>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B17" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
@@ -4519,21 +4553,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="3" max="8" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="20.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.8984375" customWidth="1"/>
+    <col min="3" max="8" width="18.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4559,7 +4593,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>514</v>
       </c>
@@ -4581,7 +4615,7 @@
       </c>
       <c r="H2" s="40"/>
     </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>515</v>
       </c>
@@ -4595,7 +4629,7 @@
       <c r="G3" s="40"/>
       <c r="H3" s="40"/>
     </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>516</v>
       </c>
@@ -4609,7 +4643,7 @@
       <c r="G4" s="40"/>
       <c r="H4" s="40"/>
     </row>
-    <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>517</v>
       </c>
@@ -4623,7 +4657,7 @@
       <c r="G5" s="40"/>
       <c r="H5" s="40"/>
     </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>518</v>
       </c>
@@ -4637,7 +4671,7 @@
       <c r="G6" s="40"/>
       <c r="H6" s="40"/>
     </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>519</v>
       </c>
@@ -4651,7 +4685,7 @@
       <c r="G7" s="40"/>
       <c r="H7" s="40"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>349</v>
       </c>
@@ -4669,7 +4703,7 @@
     <mergeCell ref="E2:E7"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1"/>
+    <hyperlink ref="B8" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/UgandaScrape/MacroData_WebsiteSources.xlsx
+++ b/UgandaScrape/MacroData_WebsiteSources.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kitty\NUS\Internship-PartTimeJob\RMI-CRI\Uganda-Scraping\UgandaScrape\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\E0196722\Desktop\WebScraping\UgandaScrape\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCFF258-7BE3-4B04-BDA5-8F1B0B969196}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-104" yWindow="-104" windowWidth="21312" windowHeight="12649" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="21315" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Stock Index" sheetId="1" r:id="rId1"/>
@@ -26,13 +25,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Liu Yaxin</author>
     <author>Ouyang Chenzi</author>
   </authors>
   <commentList>
-    <comment ref="C38" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="C38" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -56,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C39" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="C39" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1244,7 +1243,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1428,7 +1427,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1552,6 +1551,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1582,7 +1584,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -1679,23 +1681,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1731,23 +1716,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1923,27 +1891,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H81" sqref="H81"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.09765625" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.3984375" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.59765625" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.09765625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.140625" style="10" customWidth="1"/>
     <col min="5" max="5" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.69921875" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.296875" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="65.69921875" style="10" customWidth="1"/>
-    <col min="9" max="16384" width="8.8984375" style="10"/>
+    <col min="6" max="6" width="10.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="65.7109375" style="10" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1969,11 +1937,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>1386</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="33" t="s">
         <v>189</v>
       </c>
       <c r="C2" s="12" t="s">
@@ -1995,11 +1963,11 @@
         <v>342</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="43" t="s">
         <v>79</v>
       </c>
       <c r="C3" s="12" t="s">
@@ -2021,11 +1989,11 @@
         <v>341</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>1254</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="33" t="s">
         <v>171</v>
       </c>
       <c r="C4" s="12" t="s">
@@ -2047,11 +2015,11 @@
         <v>310</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>1446</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="33" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="12" t="s">
@@ -2073,7 +2041,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>1494</v>
       </c>
@@ -2099,7 +2067,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>1253</v>
       </c>
@@ -2123,7 +2091,7 @@
       </c>
       <c r="H7" s="12"/>
     </row>
-    <row r="8" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>1499</v>
       </c>
@@ -2149,7 +2117,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="19">
         <v>1474</v>
       </c>
@@ -2175,7 +2143,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>5</v>
       </c>
@@ -2201,7 +2169,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>1429</v>
       </c>
@@ -2227,7 +2195,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>6</v>
       </c>
@@ -2253,7 +2221,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>1387</v>
       </c>
@@ -2279,7 +2247,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>9</v>
       </c>
@@ -2305,7 +2273,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>1407</v>
       </c>
@@ -2331,7 +2299,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>1432</v>
       </c>
@@ -2357,7 +2325,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>1436</v>
       </c>
@@ -2383,7 +2351,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>1424</v>
       </c>
@@ -2409,7 +2377,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>1151</v>
       </c>
@@ -2435,7 +2403,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>1451</v>
       </c>
@@ -2461,7 +2429,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>1431</v>
       </c>
@@ -2487,7 +2455,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>1155</v>
       </c>
@@ -2513,7 +2481,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>20</v>
       </c>
@@ -2539,7 +2507,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>1261</v>
       </c>
@@ -2565,7 +2533,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>1256</v>
       </c>
@@ -2575,7 +2543,7 @@
       <c r="C25" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="17" t="s">
         <v>173</v>
       </c>
       <c r="E25" s="12">
@@ -2591,7 +2559,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>34</v>
       </c>
@@ -2617,7 +2585,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>1428</v>
       </c>
@@ -2643,7 +2611,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>1150</v>
       </c>
@@ -2669,7 +2637,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>43</v>
       </c>
@@ -2695,7 +2663,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>37</v>
       </c>
@@ -2721,7 +2689,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <v>1149</v>
       </c>
@@ -2747,7 +2715,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>1414</v>
       </c>
@@ -2773,7 +2741,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
         <v>1360</v>
       </c>
@@ -2799,7 +2767,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
         <v>1393</v>
       </c>
@@ -2825,7 +2793,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
         <v>49</v>
       </c>
@@ -2851,7 +2819,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12">
         <v>1482</v>
       </c>
@@ -2877,7 +2845,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12">
         <v>1422</v>
       </c>
@@ -2903,7 +2871,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12">
         <v>1094</v>
       </c>
@@ -2929,7 +2897,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="12">
         <v>1569</v>
       </c>
@@ -2958,7 +2926,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12">
         <v>1445</v>
       </c>
@@ -2984,7 +2952,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12">
         <v>1427</v>
       </c>
@@ -3010,7 +2978,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="42" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12">
         <v>1438</v>
       </c>
@@ -3036,7 +3004,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="43" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12">
         <v>1075</v>
       </c>
@@ -3062,7 +3030,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12">
         <v>1462</v>
       </c>
@@ -3088,7 +3056,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="45" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="19">
         <v>1519</v>
       </c>
@@ -3114,7 +3082,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="46" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="12">
         <v>62</v>
       </c>
@@ -3140,7 +3108,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="47" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="12">
         <v>1437</v>
       </c>
@@ -3166,7 +3134,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12">
         <v>65</v>
       </c>
@@ -3192,7 +3160,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="49" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="12">
         <v>1508</v>
       </c>
@@ -3218,7 +3186,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="12">
         <v>1511</v>
       </c>
@@ -3244,7 +3212,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="12">
         <v>66</v>
       </c>
@@ -3270,7 +3238,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="52" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="12">
         <v>67</v>
       </c>
@@ -3296,7 +3264,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="53" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="12">
         <v>1453</v>
       </c>
@@ -3322,7 +3290,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="54" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="12">
         <v>1361</v>
       </c>
@@ -3348,7 +3316,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="55" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="12">
         <v>1465</v>
       </c>
@@ -3374,7 +3342,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="56" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="12">
         <v>72</v>
       </c>
@@ -3400,7 +3368,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="57" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="12">
         <v>1509</v>
       </c>
@@ -3426,7 +3394,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="58" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="12">
         <v>71</v>
       </c>
@@ -3452,7 +3420,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="59" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="12">
         <v>1412</v>
       </c>
@@ -3478,7 +3446,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="60" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="12">
         <v>1257</v>
       </c>
@@ -3504,7 +3472,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="61" spans="1:9" s="11" customFormat="1" ht="15.55" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="12">
         <v>1520</v>
       </c>
@@ -3533,7 +3501,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="62" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="12">
         <v>1423</v>
       </c>
@@ -3559,7 +3527,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="63" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="12">
         <v>1408</v>
       </c>
@@ -3585,7 +3553,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="64" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="12">
         <v>1448</v>
       </c>
@@ -3611,7 +3579,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="65" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="12">
         <v>1470</v>
       </c>
@@ -3637,7 +3605,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="66" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="12">
         <v>75</v>
       </c>
@@ -3663,7 +3631,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="67" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="12">
         <v>1433</v>
       </c>
@@ -3689,7 +3657,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="68" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="12">
         <v>1018</v>
       </c>
@@ -3715,7 +3683,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="69" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="12">
         <v>1417</v>
       </c>
@@ -3741,7 +3709,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="70" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="12">
         <v>78</v>
       </c>
@@ -3767,7 +3735,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="71" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="12">
         <v>85</v>
       </c>
@@ -3793,7 +3761,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="72" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="12">
         <v>84</v>
       </c>
@@ -3819,7 +3787,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="73" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="12">
         <v>1154</v>
       </c>
@@ -3845,7 +3813,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="74" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="12">
         <v>1265</v>
       </c>
@@ -3871,7 +3839,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="75" spans="1:8" s="11" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A75" s="12">
         <v>90</v>
       </c>
@@ -3897,7 +3865,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="76" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="12">
         <v>1098</v>
       </c>
@@ -3923,7 +3891,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="77" spans="1:8" s="11" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="12">
         <v>91</v>
       </c>
@@ -3949,7 +3917,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="78" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="12">
         <v>1458</v>
       </c>
@@ -3975,7 +3943,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="79" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="12">
         <v>1425</v>
       </c>
@@ -4001,7 +3969,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="19">
         <v>1522</v>
       </c>
@@ -4027,7 +3995,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="81" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="12">
         <v>1418</v>
       </c>
@@ -4053,7 +4021,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="82" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="12">
         <v>1450</v>
       </c>
@@ -4079,7 +4047,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="83" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="12">
         <v>21</v>
       </c>
@@ -4105,7 +4073,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="84" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="12">
         <v>95</v>
       </c>
@@ -4131,7 +4099,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="85" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="12">
         <v>1388</v>
       </c>
@@ -4157,7 +4125,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="12">
         <v>97</v>
       </c>
@@ -4183,7 +4151,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="33">
         <v>1466</v>
       </c>
@@ -4210,49 +4178,49 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H84">
+  <sortState ref="A2:H84">
     <sortCondition ref="B1"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="H5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="H37" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="H6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="H47" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="H50" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="H81" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="H72" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="H43" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="H49" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="H33" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="H68" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="H83" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="H8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="H86" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="H40" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="H46" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="H66" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="H77" r:id="rId18" display="https://www.set.or.th/set/mainpage.do?language=en&amp;country=US" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="H19" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="H14" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="H26" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="H32" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="H69" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="H45" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="H57" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="H3" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="H2" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="H4" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="H10" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="H80" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="H9" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="H44" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="H39" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="H76" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="H38" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="H55" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="H61" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="H82" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="H18" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="H5" r:id="rId1"/>
+    <hyperlink ref="H37" r:id="rId2"/>
+    <hyperlink ref="H6" r:id="rId3"/>
+    <hyperlink ref="H47" r:id="rId4"/>
+    <hyperlink ref="H50" r:id="rId5"/>
+    <hyperlink ref="H81" r:id="rId6"/>
+    <hyperlink ref="H72" r:id="rId7"/>
+    <hyperlink ref="H43" r:id="rId8"/>
+    <hyperlink ref="H49" r:id="rId9"/>
+    <hyperlink ref="H33" r:id="rId10"/>
+    <hyperlink ref="H68" r:id="rId11"/>
+    <hyperlink ref="H83" r:id="rId12"/>
+    <hyperlink ref="H8" r:id="rId13"/>
+    <hyperlink ref="H86" r:id="rId14"/>
+    <hyperlink ref="H40" r:id="rId15"/>
+    <hyperlink ref="H46" r:id="rId16"/>
+    <hyperlink ref="H66" r:id="rId17"/>
+    <hyperlink ref="H77" r:id="rId18" display="https://www.set.or.th/set/mainpage.do?language=en&amp;country=US"/>
+    <hyperlink ref="H19" r:id="rId19"/>
+    <hyperlink ref="H14" r:id="rId20"/>
+    <hyperlink ref="H26" r:id="rId21"/>
+    <hyperlink ref="H32" r:id="rId22"/>
+    <hyperlink ref="H69" r:id="rId23"/>
+    <hyperlink ref="H45" r:id="rId24"/>
+    <hyperlink ref="H57" r:id="rId25"/>
+    <hyperlink ref="H3" r:id="rId26"/>
+    <hyperlink ref="H2" r:id="rId27"/>
+    <hyperlink ref="H4" r:id="rId28"/>
+    <hyperlink ref="H10" r:id="rId29"/>
+    <hyperlink ref="H80" r:id="rId30"/>
+    <hyperlink ref="H9" r:id="rId31"/>
+    <hyperlink ref="H44" r:id="rId32"/>
+    <hyperlink ref="H39" r:id="rId33"/>
+    <hyperlink ref="H76" r:id="rId34"/>
+    <hyperlink ref="H38" r:id="rId35"/>
+    <hyperlink ref="H55" r:id="rId36"/>
+    <hyperlink ref="H61" r:id="rId37"/>
+    <hyperlink ref="H82" r:id="rId38"/>
+    <hyperlink ref="H18" r:id="rId39"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId40"/>
@@ -4261,26 +4229,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.69921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.09765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="74.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="74.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4306,7 +4274,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1492</v>
       </c>
@@ -4330,7 +4298,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1493</v>
       </c>
@@ -4344,7 +4312,7 @@
       <c r="G3" s="42"/>
       <c r="H3" s="41"/>
     </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>750</v>
       </c>
@@ -4358,7 +4326,7 @@
       <c r="G4" s="42"/>
       <c r="H4" s="41"/>
     </row>
-    <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>751</v>
       </c>
@@ -4372,7 +4340,7 @@
       <c r="G5" s="42"/>
       <c r="H5" s="41"/>
     </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>752</v>
       </c>
@@ -4386,7 +4354,7 @@
       <c r="G6" s="42"/>
       <c r="H6" s="41"/>
     </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>753</v>
       </c>
@@ -4400,7 +4368,7 @@
       <c r="G7" s="42"/>
       <c r="H7" s="41"/>
     </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>754</v>
       </c>
@@ -4414,7 +4382,7 @@
       <c r="G8" s="42"/>
       <c r="H8" s="41"/>
     </row>
-    <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>755</v>
       </c>
@@ -4428,7 +4396,7 @@
       <c r="G9" s="42"/>
       <c r="H9" s="41"/>
     </row>
-    <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>756</v>
       </c>
@@ -4442,7 +4410,7 @@
       <c r="G10" s="42"/>
       <c r="H10" s="41"/>
     </row>
-    <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>757</v>
       </c>
@@ -4456,7 +4424,7 @@
       <c r="G11" s="42"/>
       <c r="H11" s="41"/>
     </row>
-    <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>758</v>
       </c>
@@ -4470,7 +4438,7 @@
       <c r="G12" s="42"/>
       <c r="H12" s="41"/>
     </row>
-    <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>759</v>
       </c>
@@ -4484,7 +4452,7 @@
       <c r="G13" s="42"/>
       <c r="H13" s="41"/>
     </row>
-    <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>760</v>
       </c>
@@ -4498,7 +4466,7 @@
       <c r="G14" s="42"/>
       <c r="H14" s="41"/>
     </row>
-    <row r="15" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>761</v>
       </c>
@@ -4512,7 +4480,7 @@
       <c r="G15" s="42"/>
       <c r="H15" s="41"/>
     </row>
-    <row r="16" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>762</v>
       </c>
@@ -4526,7 +4494,7 @@
       <c r="G16" s="42"/>
       <c r="H16" s="41"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>349</v>
       </c>
@@ -4544,8 +4512,8 @@
     <mergeCell ref="D2:D16"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="B17" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="H2" r:id="rId1"/>
+    <hyperlink ref="B17" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
@@ -4553,21 +4521,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.8984375" customWidth="1"/>
-    <col min="3" max="8" width="18.3984375" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="8" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4593,7 +4561,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>514</v>
       </c>
@@ -4615,7 +4583,7 @@
       </c>
       <c r="H2" s="40"/>
     </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>515</v>
       </c>
@@ -4629,7 +4597,7 @@
       <c r="G3" s="40"/>
       <c r="H3" s="40"/>
     </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>516</v>
       </c>
@@ -4643,7 +4611,7 @@
       <c r="G4" s="40"/>
       <c r="H4" s="40"/>
     </row>
-    <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>517</v>
       </c>
@@ -4657,7 +4625,7 @@
       <c r="G5" s="40"/>
       <c r="H5" s="40"/>
     </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>518</v>
       </c>
@@ -4671,7 +4639,7 @@
       <c r="G6" s="40"/>
       <c r="H6" s="40"/>
     </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>519</v>
       </c>
@@ -4685,7 +4653,7 @@
       <c r="G7" s="40"/>
       <c r="H7" s="40"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>349</v>
       </c>
@@ -4703,7 +4671,7 @@
     <mergeCell ref="E2:E7"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="B8" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
